--- a/bin/Debug/3_TSP.xlsx
+++ b/bin/Debug/3_TSP.xlsx
@@ -434,34 +434,34 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="G2">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="H2">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="I2">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J2">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="K2">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -469,31 +469,31 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="G3">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="H3">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="I3">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -504,34 +504,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="G4">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="H4">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="I4">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="J4">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -539,34 +539,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="G5">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H5">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J5">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -574,34 +574,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="G6">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="H6">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="I6">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J6">
-        <v>352.52</v>
+        <v>181.12</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/3_TSP.xlsx
+++ b/bin/Debug/3_TSP.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docyment\prog\GitHub\Задача коммивояжера\TSP\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\Desktop\ПРО\TSP\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,40 +29,40 @@
     <t>Вершин</t>
   </si>
   <si>
-    <t>Полный перебор длина</t>
-  </si>
-  <si>
-    <t>Полный перебор время</t>
-  </si>
-  <si>
-    <t>Муравьиный алгоритм длина</t>
-  </si>
-  <si>
-    <t>Муравьиный алгоритм время</t>
-  </si>
-  <si>
-    <t>Генетический алгоритм длина</t>
-  </si>
-  <si>
-    <t>Генетический алгоритм время</t>
-  </si>
-  <si>
-    <t>Метод имитации и отжига длина</t>
-  </si>
-  <si>
-    <t>Метод имитации и отжига время</t>
-  </si>
-  <si>
-    <t>Метод ветвей и границ длина</t>
-  </si>
-  <si>
-    <t>Метод ветвей и границ время</t>
+    <t>Полный перебор Длина</t>
+  </si>
+  <si>
+    <t>Полный перебор Время</t>
+  </si>
+  <si>
+    <t>Муравьиный алгоритм Длина</t>
+  </si>
+  <si>
+    <t>Муравьиный алгоритм Время</t>
+  </si>
+  <si>
+    <t>Генетический алгоритм Длина</t>
+  </si>
+  <si>
+    <t>Генетический алгоритм Время</t>
+  </si>
+  <si>
+    <t>Метод имитации и отжига Длина</t>
+  </si>
+  <si>
+    <t>Метод имитации и отжига Время</t>
+  </si>
+  <si>
+    <t>Метод ветвей и границ Длина</t>
+  </si>
+  <si>
+    <t>Метод ветвей и границ Время</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,9 +158,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -193,9 +193,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -382,16 +382,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -434,34 +429,34 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>375.06</v>
+        <v>387.33</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>375.06</v>
+        <v>387.33</v>
       </c>
       <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>387.33</v>
+      </c>
+      <c r="G2">
+        <v>179</v>
+      </c>
+      <c r="H2">
+        <v>387.33</v>
+      </c>
+      <c r="I2">
+        <v>90</v>
+      </c>
+      <c r="J2">
+        <v>387.33</v>
+      </c>
+      <c r="K2">
         <v>8</v>
-      </c>
-      <c r="F2">
-        <v>375.06</v>
-      </c>
-      <c r="G2">
-        <v>298</v>
-      </c>
-      <c r="H2">
-        <v>375.06</v>
-      </c>
-      <c r="I2">
-        <v>98</v>
-      </c>
-      <c r="J2">
-        <v>375.06</v>
-      </c>
-      <c r="K2">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -469,34 +464,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>516.71</v>
+        <v>127.24</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>516.71</v>
+        <v>127.24</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>516.71</v>
+        <v>127.24</v>
       </c>
       <c r="G3">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="H3">
-        <v>516.71</v>
+        <v>127.24</v>
       </c>
       <c r="I3">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="J3">
-        <v>516.71</v>
+        <v>127.24</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -504,34 +499,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>493.68</v>
+        <v>229.51</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>493.68</v>
+        <v>229.51</v>
       </c>
       <c r="E4">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>493.68</v>
+        <v>229.51</v>
       </c>
       <c r="G4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4">
-        <v>493.68</v>
+        <v>229.51</v>
       </c>
       <c r="I4">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J4">
-        <v>493.68</v>
+        <v>229.51</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -539,34 +534,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>527.30999999999995</v>
+        <v>499.03</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>527.30999999999995</v>
+        <v>499.03</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>527.30999999999995</v>
+        <v>499.03</v>
       </c>
       <c r="G5">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="H5">
-        <v>527.30999999999995</v>
+        <v>499.03</v>
       </c>
       <c r="I5">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J5">
-        <v>527.30999999999995</v>
+        <v>499.03</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -574,34 +569,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>458.54</v>
+        <v>504.75</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>458.54</v>
+        <v>504.75</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>458.54</v>
+        <v>504.75</v>
       </c>
       <c r="G6">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H6">
-        <v>458.54</v>
+        <v>504.75</v>
       </c>
       <c r="I6">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J6">
-        <v>458.54</v>
+        <v>504.75</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
